--- a/biology/Zoologie/Diphyllobothriidae/Diphyllobothriidae.xlsx
+++ b/biology/Zoologie/Diphyllobothriidae/Diphyllobothriidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Diphyllobothriidae forment une famille de vers plats parasites de la classe des cestodes (ordre des Diphyllobothriidea). 
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,11 +551,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet avec auteur de ce taxon est Diphyllobothriidae Lühe, 1910[1].
-Liste des genres
-Selon la base de données World Register of Marine Species                               (19 février 2024)[1], la famille des Diphyllobothriidae regroupe les genres suivants :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet avec auteur de ce taxon est Diphyllobothriidae Lühe, 1910.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Diphyllobothriidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diphyllobothriidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (19 février 2024), la famille des Diphyllobothriidae regroupe les genres suivants :
 Adenocephalus Nybelin, 1931
 Baylisia Markowski, 1952
 Baylisiella Markowski, 1952
@@ -555,9 +606,43 @@
 Pyramicocephalus Monticelli, 1890
 Schistocephalus Creplin, 1829
 Spirometra Faust, Campbell &amp; Kellogg, 1929
-Tetragonoporus Skryabin, 1961
-Synonymes, suppressions
-D'après World Register of Marine Species                               (19 février 2024)[1] les genres suivants sont des synonymes :
+Tetragonoporus Skryabin, 1961</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diphyllobothriidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diphyllobothriidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes, suppressions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après World Register of Marine Species                               (19 février 2024) les genres suivants sont des synonymes :
 le genre Cordicephalus Wardle, McLeod &amp; Stewart, 1947 est synonyme de Diphyllobothrium Cobbold, 1858 ;
 le genre Digramma Cholodkovsky, 1914 est synonyme de Ligula Bloch, 1782 (Synonym)
 le genre Diplogonoporus Lönnberg, 1892 est synonyme de Diphyllobothrium Cobbold, 1858 ;
